--- a/truck/Table/CharacterSpecial.xlsx
+++ b/truck/Table/CharacterSpecial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\kci\truck\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A59A2D-5A67-4473-B983-7D6AC5D44E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB65C3F-925D-4C28-84CD-6CFB5EBE4D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11595" yWindow="5070" windowWidth="16230" windowHeight="12285" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterSpecial" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +97,16 @@
   </si>
   <si>
     <t>배율(곱연산)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임
+획득시 보여주는 캐릭터 프리팹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로비
+도감 등에서 사용할 아이콘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -191,6 +192,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,14 +533,14 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -559,15 +563,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">

--- a/truck/Table/CharacterSpecial.xlsx
+++ b/truck/Table/CharacterSpecial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\truck\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB65C3F-925D-4C28-84CD-6CFB5EBE4D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DC7866-D2AE-4BEF-A9F5-A77E4212ACD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
@@ -25,13 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -533,7 +529,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -548,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -568,41 +564,41 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>0.9</v>
@@ -611,15 +607,15 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>7.0000000000000007E-2</v>
@@ -628,15 +624,15 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>0.02</v>
@@ -645,15 +641,15 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>0.01</v>
@@ -662,7 +658,7 @@
         <v>999999</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/truck/Table/CharacterSpecial.xlsx
+++ b/truck/Table/CharacterSpecial.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DC7866-D2AE-4BEF-A9F5-A77E4212ACD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C178A1-B6B8-4BE6-B439-A1D64A4128D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
-    <sheet name="CharacterSpecial" sheetId="1" r:id="rId1"/>
+    <sheet name="#CharacterSpecial" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -529,7 +529,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
